--- a/实践分工.xlsx
+++ b/实践分工.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13900"/>
+    <workbookView windowWidth="27060" windowHeight="13480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>杜国豪</t>
   </si>
   <si>
-    <t>高溶</t>
+    <t>王高源</t>
   </si>
   <si>
     <t>邱可玥（上二）</t>
@@ -130,7 +130,10 @@
     <t>白钰卓（上二）</t>
   </si>
   <si>
-    <t>王高源（北二）</t>
+    <t>韩佳乘（北二）</t>
+  </si>
+  <si>
+    <t>韩佳乘</t>
   </si>
   <si>
     <t>王景雯（上一）</t>
@@ -140,9 +143,6 @@
   </si>
   <si>
     <t>金凤玲（上一）</t>
-  </si>
-  <si>
-    <t>王高源</t>
   </si>
   <si>
     <t>甘晓露（上二）</t>
@@ -165,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -194,7 +194,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -202,23 +202,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,18 +301,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,67 +317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,181 +338,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,71 +531,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,147 +558,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1098,13 +1098,13 @@
   <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="3" max="3" width="6.3125" customWidth="1"/>
+    <col min="3" max="3" width="10.2589285714286" customWidth="1"/>
     <col min="4" max="4" width="14.9732142857143" customWidth="1"/>
     <col min="5" max="5" width="15.0625" customWidth="1"/>
     <col min="6" max="6" width="15.9107142857143" customWidth="1"/>
@@ -1259,7 +1259,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -1274,18 +1274,18 @@
         <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="4:12">
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -1294,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
         <v>35</v>
@@ -1303,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="4:12">
@@ -1320,7 +1320,7 @@
         <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>45</v>

--- a/实践分工.xlsx
+++ b/实践分工.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>组别</t>
   </si>
@@ -58,15 +58,15 @@
     <t>杜国豪</t>
   </si>
   <si>
+    <t>洪文逸</t>
+  </si>
+  <si>
     <t>王高源</t>
   </si>
   <si>
     <t>邱可玥（上二）</t>
   </si>
   <si>
-    <t>洪文逸</t>
-  </si>
-  <si>
     <t>白钰卓</t>
   </si>
   <si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>张梦琪（上三）</t>
+  </si>
+  <si>
+    <t>李嘉音（杭）</t>
+  </si>
+  <si>
+    <t>李嘉音</t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1163,13 +1169,13 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -1239,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -1291,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>39</v>
@@ -1303,7 +1309,7 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="4:12">
@@ -1320,7 +1326,7 @@
         <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>45</v>
@@ -1332,15 +1338,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:10">
       <c r="D8" t="s">
         <v>47</v>
       </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
       <c r="H8" t="s">
         <v>46</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="8:9">
@@ -1357,6 +1372,11 @@
       </c>
       <c r="I10" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="9:9">
+      <c r="I11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/实践分工.xlsx
+++ b/实践分工.xlsx
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/实践分工.xlsx
+++ b/实践分工.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>组别</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>李嘉音</t>
+  </si>
+  <si>
+    <t>发动捐款</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1108,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1358,7 +1361,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="8:9">
+    <row r="9" spans="3:9">
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
       <c r="H9" t="s">
         <v>35</v>
       </c>

--- a/实践分工.xlsx
+++ b/实践分工.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>组别</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>李嘉音</t>
-  </si>
-  <si>
-    <t>发动捐款</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:9">
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
+    <row r="9" spans="8:9">
       <c r="H9" t="s">
         <v>35</v>
       </c>

--- a/实践分工.xlsx
+++ b/实践分工.xlsx
@@ -58,15 +58,18 @@
     <t>杜国豪</t>
   </si>
   <si>
+    <t>金凤玲</t>
+  </si>
+  <si>
+    <t>王高源</t>
+  </si>
+  <si>
+    <t>邱可玥（上二）</t>
+  </si>
+  <si>
     <t>洪文逸</t>
   </si>
   <si>
-    <t>王高源</t>
-  </si>
-  <si>
-    <t>邱可玥（上二）</t>
-  </si>
-  <si>
     <t>白钰卓</t>
   </si>
   <si>
@@ -149,9 +152,6 @@
   </si>
   <si>
     <t>刘云昊（上三）</t>
-  </si>
-  <si>
-    <t>金凤玲</t>
   </si>
   <si>
     <t>邱可玥</t>
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -199,62 +199,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,31 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +261,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -314,9 +276,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,6 +317,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,175 +344,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,15 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,6 +556,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,6 +576,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,15 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,58 +637,130 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,79 +769,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1175,100 +1175,100 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="4:12">
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="4:12">
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -1277,36 +1277,36 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="4:12">
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -1314,28 +1314,28 @@
     </row>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="4:10">
@@ -1352,7 +1352,7 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
@@ -1360,23 +1360,18 @@
     </row>
     <row r="9" spans="8:9">
       <c r="H9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="8:9">
       <c r="H10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="9:9">
-      <c r="I11" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/实践分工.xlsx
+++ b/实践分工.xlsx
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -199,11 +199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,18 +214,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,6 +246,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -269,29 +270,50 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -300,30 +322,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +344,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -356,79 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,19 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,61 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +537,69 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,39 +621,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -599,177 +629,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1104,8 +1104,8 @@
   <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/实践分工.xlsx
+++ b/实践分工.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27060" windowHeight="13480"/>
+    <workbookView windowWidth="26160" windowHeight="13480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,22 +34,22 @@
     <t>文案组</t>
   </si>
   <si>
-    <t>杭州组</t>
-  </si>
-  <si>
-    <t>北京一组</t>
-  </si>
-  <si>
-    <t>北京二组</t>
-  </si>
-  <si>
-    <t>上海一组</t>
-  </si>
-  <si>
-    <t>上海二组</t>
-  </si>
-  <si>
-    <t>上海三组</t>
+    <t>阿里巴巴组</t>
+  </si>
+  <si>
+    <t>美团组</t>
+  </si>
+  <si>
+    <t>仙途智能组</t>
+  </si>
+  <si>
+    <t>创蓝文化</t>
+  </si>
+  <si>
+    <t>网易考拉</t>
+  </si>
+  <si>
+    <t>个推公司</t>
   </si>
   <si>
     <t>队长</t>
@@ -171,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -186,14 +186,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,28 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -247,7 +233,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +271,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -269,32 +293,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,21 +317,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,13 +350,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,25 +470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,127 +500,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,15 +529,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,9 +543,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,194 +629,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1115,6 +1115,7 @@
     <col min="5" max="5" width="15.0625" customWidth="1"/>
     <col min="6" max="6" width="15.9107142857143" customWidth="1"/>
     <col min="8" max="8" width="13.2321428571429" customWidth="1"/>
+    <col min="9" max="9" width="12.2410714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
